--- a/Team-Data/2007-08/12-18-2007-08.xlsx
+++ b/Team-Data/2007-08/12-18-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>-0.9</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE2" t="n">
         <v>16</v>
@@ -756,7 +823,7 @@
         <v>16</v>
       </c>
       <c r="AH2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI2" t="n">
         <v>28</v>
@@ -780,7 +847,7 @@
         <v>7</v>
       </c>
       <c r="AP2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AQ2" t="n">
         <v>13</v>
@@ -789,7 +856,7 @@
         <v>12</v>
       </c>
       <c r="AS2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT2" t="n">
         <v>23</v>
@@ -813,7 +880,7 @@
         <v>11</v>
       </c>
       <c r="BA2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB2" t="n">
         <v>24</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-18-2007-08</t>
+          <t>2007-12-18</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-18-2007-08</t>
+          <t>2007-12-18</t>
         </is>
       </c>
     </row>
@@ -1114,13 +1181,13 @@
         <v>24</v>
       </c>
       <c r="AF4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI4" t="n">
         <v>27</v>
@@ -1138,7 +1205,7 @@
         <v>16</v>
       </c>
       <c r="AN4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO4" t="n">
         <v>21</v>
@@ -1177,7 +1244,7 @@
         <v>27</v>
       </c>
       <c r="BA4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB4" t="n">
         <v>29</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-18-2007-08</t>
+          <t>2007-12-18</t>
         </is>
       </c>
     </row>
@@ -1212,67 +1279,67 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
       </c>
       <c r="F5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" t="n">
-        <v>0.364</v>
+        <v>0.381</v>
       </c>
       <c r="H5" t="n">
         <v>48.2</v>
       </c>
       <c r="I5" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="J5" t="n">
-        <v>85</v>
+        <v>85.3</v>
       </c>
       <c r="K5" t="n">
-        <v>0.413</v>
+        <v>0.41</v>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="M5" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="N5" t="n">
-        <v>0.318</v>
+        <v>0.32</v>
       </c>
       <c r="O5" t="n">
-        <v>16.8</v>
+        <v>17</v>
       </c>
       <c r="P5" t="n">
-        <v>22.1</v>
+        <v>22.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.761</v>
+        <v>0.763</v>
       </c>
       <c r="R5" t="n">
-        <v>13.7</v>
+        <v>14</v>
       </c>
       <c r="S5" t="n">
-        <v>30.2</v>
+        <v>30</v>
       </c>
       <c r="T5" t="n">
-        <v>43.9</v>
+        <v>44</v>
       </c>
       <c r="U5" t="n">
-        <v>21.5</v>
+        <v>21.2</v>
       </c>
       <c r="V5" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W5" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X5" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y5" t="n">
         <v>5.9</v>
@@ -1281,16 +1348,16 @@
         <v>21.4</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AB5" t="n">
         <v>92</v>
       </c>
       <c r="AC5" t="n">
-        <v>-4</v>
+        <v>-3.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AE5" t="n">
         <v>24</v>
@@ -1308,7 +1375,7 @@
         <v>25</v>
       </c>
       <c r="AJ5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK5" t="n">
         <v>30</v>
@@ -1317,10 +1384,10 @@
         <v>25</v>
       </c>
       <c r="AM5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO5" t="n">
         <v>24</v>
@@ -1335,22 +1402,22 @@
         <v>1</v>
       </c>
       <c r="AS5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AU5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY5" t="n">
         <v>28</v>
@@ -1359,7 +1426,7 @@
         <v>15</v>
       </c>
       <c r="BA5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB5" t="n">
         <v>28</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-18-2007-08</t>
+          <t>2007-12-18</t>
         </is>
       </c>
     </row>
@@ -1472,13 +1539,13 @@
         <v>-4.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE6" t="n">
         <v>18</v>
       </c>
       <c r="AF6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG6" t="n">
         <v>18</v>
@@ -1529,13 +1596,13 @@
         <v>17</v>
       </c>
       <c r="AW6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX6" t="n">
         <v>15</v>
       </c>
       <c r="AY6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ6" t="n">
         <v>24</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-18-2007-08</t>
+          <t>2007-12-18</t>
         </is>
       </c>
     </row>
@@ -1666,7 +1733,7 @@
         <v>5</v>
       </c>
       <c r="AH7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI7" t="n">
         <v>14</v>
@@ -1678,7 +1745,7 @@
         <v>6</v>
       </c>
       <c r="AL7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM7" t="n">
         <v>17</v>
@@ -1708,7 +1775,7 @@
         <v>17</v>
       </c>
       <c r="AV7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW7" t="n">
         <v>29</v>
@@ -1720,7 +1787,7 @@
         <v>4</v>
       </c>
       <c r="AZ7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA7" t="n">
         <v>13</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-18-2007-08</t>
+          <t>2007-12-18</t>
         </is>
       </c>
     </row>
@@ -1836,10 +1903,10 @@
         <v>3.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AF8" t="n">
         <v>8</v>
@@ -1863,7 +1930,7 @@
         <v>12</v>
       </c>
       <c r="AM8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN8" t="n">
         <v>16</v>
@@ -1881,7 +1948,7 @@
         <v>18</v>
       </c>
       <c r="AS8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT8" t="n">
         <v>9</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-18-2007-08</t>
+          <t>2007-12-18</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>8.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE9" t="n">
         <v>4</v>
@@ -2042,7 +2109,7 @@
         <v>8</v>
       </c>
       <c r="AL9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM9" t="n">
         <v>20</v>
@@ -2069,7 +2136,7 @@
         <v>17</v>
       </c>
       <c r="AU9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV9" t="n">
         <v>1</v>
@@ -2084,7 +2151,7 @@
         <v>1</v>
       </c>
       <c r="AZ9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA9" t="n">
         <v>22</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-18-2007-08</t>
+          <t>2007-12-18</t>
         </is>
       </c>
     </row>
@@ -2200,19 +2267,19 @@
         <v>1.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE10" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AF10" t="n">
         <v>11</v>
       </c>
       <c r="AG10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH10" t="n">
         <v>12</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>11</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2221,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="AK10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL10" t="n">
         <v>1</v>
@@ -2245,13 +2312,13 @@
         <v>2</v>
       </c>
       <c r="AS10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT10" t="n">
         <v>10</v>
       </c>
       <c r="AU10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV10" t="n">
         <v>6</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-18-2007-08</t>
+          <t>2007-12-18</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>0.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE11" t="n">
         <v>16</v>
@@ -2412,7 +2479,7 @@
         <v>11</v>
       </c>
       <c r="AN11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO11" t="n">
         <v>27</v>
@@ -2430,7 +2497,7 @@
         <v>10</v>
       </c>
       <c r="AT11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU11" t="n">
         <v>20</v>
@@ -2454,7 +2521,7 @@
         <v>25</v>
       </c>
       <c r="BB11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC11" t="n">
         <v>14</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-18-2007-08</t>
+          <t>2007-12-18</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE12" t="n">
         <v>13</v>
@@ -2588,13 +2655,13 @@
         <v>19</v>
       </c>
       <c r="AL12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM12" t="n">
         <v>4</v>
       </c>
       <c r="AN12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO12" t="n">
         <v>16</v>
@@ -2612,22 +2679,22 @@
         <v>4</v>
       </c>
       <c r="AT12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX12" t="n">
         <v>5</v>
       </c>
       <c r="AY12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ12" t="n">
         <v>30</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-18-2007-08</t>
+          <t>2007-12-18</t>
         </is>
       </c>
     </row>
@@ -2668,28 +2735,28 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
       </c>
       <c r="F13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G13" t="n">
-        <v>0.375</v>
+        <v>0.391</v>
       </c>
       <c r="H13" t="n">
         <v>48</v>
       </c>
       <c r="I13" t="n">
-        <v>33.1</v>
+        <v>33.3</v>
       </c>
       <c r="J13" t="n">
-        <v>78.8</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>0.42</v>
+        <v>0.422</v>
       </c>
       <c r="L13" t="n">
         <v>5.4</v>
@@ -2701,61 +2768,61 @@
         <v>0.355</v>
       </c>
       <c r="O13" t="n">
-        <v>22</v>
+        <v>22.4</v>
       </c>
       <c r="P13" t="n">
-        <v>28</v>
+        <v>28.6</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.784</v>
+        <v>0.783</v>
       </c>
       <c r="R13" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="S13" t="n">
-        <v>32.7</v>
+        <v>32.4</v>
       </c>
       <c r="T13" t="n">
-        <v>42.8</v>
+        <v>42.4</v>
       </c>
       <c r="U13" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="V13" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="W13" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="X13" t="n">
         <v>5.2</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="Z13" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AA13" t="n">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>93.59999999999999</v>
+        <v>94.3</v>
       </c>
       <c r="AC13" t="n">
         <v>-4.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AE13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF13" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AG13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH13" t="n">
         <v>21</v>
@@ -2770,28 +2837,28 @@
         <v>29</v>
       </c>
       <c r="AL13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM13" t="n">
         <v>25</v>
       </c>
       <c r="AN13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP13" t="n">
         <v>5</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>8</v>
       </c>
       <c r="AQ13" t="n">
         <v>7</v>
       </c>
       <c r="AR13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT13" t="n">
         <v>12</v>
@@ -2803,25 +2870,25 @@
         <v>20</v>
       </c>
       <c r="AW13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX13" t="n">
         <v>8</v>
       </c>
       <c r="AY13" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AZ13" t="n">
         <v>21</v>
       </c>
       <c r="BA13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BC13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-18-2007-08</t>
+          <t>2007-12-18</t>
         </is>
       </c>
     </row>
@@ -2850,37 +2917,37 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F14" t="n">
         <v>9</v>
       </c>
       <c r="G14" t="n">
-        <v>0.625</v>
+        <v>0.609</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>38.4</v>
+        <v>38.5</v>
       </c>
       <c r="J14" t="n">
-        <v>81.90000000000001</v>
+        <v>81.7</v>
       </c>
       <c r="K14" t="n">
-        <v>0.469</v>
+        <v>0.471</v>
       </c>
       <c r="L14" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M14" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="N14" t="n">
-        <v>0.357</v>
+        <v>0.361</v>
       </c>
       <c r="O14" t="n">
         <v>22.9</v>
@@ -2889,49 +2956,49 @@
         <v>29.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.77</v>
+        <v>0.768</v>
       </c>
       <c r="R14" t="n">
-        <v>11.1</v>
+        <v>10.8</v>
       </c>
       <c r="S14" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="T14" t="n">
-        <v>45.2</v>
+        <v>44.9</v>
       </c>
       <c r="U14" t="n">
-        <v>23.7</v>
+        <v>23.5</v>
       </c>
       <c r="V14" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="W14" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="X14" t="n">
         <v>5</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z14" t="n">
-        <v>22</v>
+        <v>22.2</v>
       </c>
       <c r="AA14" t="n">
         <v>23.3</v>
       </c>
       <c r="AB14" t="n">
-        <v>107</v>
+        <v>107.1</v>
       </c>
       <c r="AC14" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="AD14" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AE14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF14" t="n">
         <v>5</v>
@@ -2952,13 +3019,13 @@
         <v>5</v>
       </c>
       <c r="AL14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM14" t="n">
         <v>7</v>
       </c>
       <c r="AN14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO14" t="n">
         <v>1</v>
@@ -2967,7 +3034,7 @@
         <v>3</v>
       </c>
       <c r="AQ14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AR14" t="n">
         <v>17</v>
@@ -2976,13 +3043,13 @@
         <v>2</v>
       </c>
       <c r="AT14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV14" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AW14" t="n">
         <v>5</v>
@@ -2991,10 +3058,10 @@
         <v>14</v>
       </c>
       <c r="AY14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA14" t="n">
         <v>6</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-18-2007-08</t>
+          <t>2007-12-18</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-2.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3122,7 +3189,7 @@
         <v>26</v>
       </c>
       <c r="AH15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI15" t="n">
         <v>7</v>
@@ -3173,13 +3240,13 @@
         <v>13</v>
       </c>
       <c r="AY15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ15" t="n">
         <v>5</v>
       </c>
       <c r="BA15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BB15" t="n">
         <v>7</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-18-2007-08</t>
+          <t>2007-12-18</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-4.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE16" t="n">
         <v>26</v>
@@ -3346,7 +3413,7 @@
         <v>25</v>
       </c>
       <c r="AV16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW16" t="n">
         <v>15</v>
@@ -3358,7 +3425,7 @@
         <v>5</v>
       </c>
       <c r="AZ16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA16" t="n">
         <v>17</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-18-2007-08</t>
+          <t>2007-12-18</t>
         </is>
       </c>
     </row>
@@ -3474,13 +3541,13 @@
         <v>-4.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE17" t="n">
         <v>19</v>
       </c>
       <c r="AF17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG17" t="n">
         <v>19</v>
@@ -3501,7 +3568,7 @@
         <v>24</v>
       </c>
       <c r="AM17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN17" t="n">
         <v>25</v>
@@ -3537,7 +3604,7 @@
         <v>19</v>
       </c>
       <c r="AY17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ17" t="n">
         <v>16</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-18-2007-08</t>
+          <t>2007-12-18</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-8.1</v>
       </c>
       <c r="AD18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3710,7 +3777,7 @@
         <v>28</v>
       </c>
       <c r="AV18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW18" t="n">
         <v>18</v>
@@ -3725,7 +3792,7 @@
         <v>28</v>
       </c>
       <c r="BA18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BB18" t="n">
         <v>27</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-18-2007-08</t>
+          <t>2007-12-18</t>
         </is>
       </c>
     </row>
@@ -3760,97 +3827,97 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
       </c>
       <c r="F19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4</v>
+        <v>0.417</v>
       </c>
       <c r="H19" t="n">
         <v>48.4</v>
       </c>
       <c r="I19" t="n">
-        <v>32.4</v>
+        <v>32.1</v>
       </c>
       <c r="J19" t="n">
-        <v>75.40000000000001</v>
+        <v>75.3</v>
       </c>
       <c r="K19" t="n">
-        <v>0.429</v>
+        <v>0.426</v>
       </c>
       <c r="L19" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="M19" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="N19" t="n">
-        <v>0.314</v>
+        <v>0.316</v>
       </c>
       <c r="O19" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="P19" t="n">
-        <v>28.2</v>
+        <v>28.3</v>
       </c>
       <c r="Q19" t="n">
         <v>0.739</v>
       </c>
       <c r="R19" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S19" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="T19" t="n">
-        <v>40.7</v>
+        <v>40.5</v>
       </c>
       <c r="U19" t="n">
-        <v>22.4</v>
+        <v>22.2</v>
       </c>
       <c r="V19" t="n">
-        <v>16.2</v>
+        <v>15.9</v>
       </c>
       <c r="W19" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="X19" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y19" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Z19" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="AA19" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="AB19" t="n">
-        <v>91</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="AC19" t="n">
         <v>-5.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AE19" t="n">
         <v>19</v>
       </c>
       <c r="AF19" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AG19" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AH19" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3859,10 +3926,10 @@
         <v>29</v>
       </c>
       <c r="AK19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM19" t="n">
         <v>15</v>
@@ -3892,13 +3959,13 @@
         <v>11</v>
       </c>
       <c r="AV19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AW19" t="n">
         <v>23</v>
       </c>
       <c r="AX19" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AY19" t="n">
         <v>6</v>
@@ -3907,7 +3974,7 @@
         <v>26</v>
       </c>
       <c r="BA19" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BB19" t="n">
         <v>30</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-18-2007-08</t>
+          <t>2007-12-18</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>1.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE20" t="n">
         <v>7</v>
@@ -4044,7 +4111,7 @@
         <v>25</v>
       </c>
       <c r="AL20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM20" t="n">
         <v>8</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-18-2007-08</t>
+          <t>2007-12-18</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-8.800000000000001</v>
       </c>
       <c r="AD21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE21" t="n">
         <v>26</v>
@@ -4214,7 +4281,7 @@
         <v>26</v>
       </c>
       <c r="AH21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI21" t="n">
         <v>26</v>
@@ -4223,7 +4290,7 @@
         <v>15</v>
       </c>
       <c r="AK21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL21" t="n">
         <v>23</v>
@@ -4271,10 +4338,10 @@
         <v>17</v>
       </c>
       <c r="BA21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC21" t="n">
         <v>30</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-18-2007-08</t>
+          <t>2007-12-18</t>
         </is>
       </c>
     </row>
@@ -4414,7 +4481,7 @@
         <v>2</v>
       </c>
       <c r="AN22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO22" t="n">
         <v>9</v>
@@ -4435,7 +4502,7 @@
         <v>7</v>
       </c>
       <c r="AU22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV22" t="n">
         <v>13</v>
@@ -4453,7 +4520,7 @@
         <v>12</v>
       </c>
       <c r="BA22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB22" t="n">
         <v>8</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-18-2007-08</t>
+          <t>2007-12-18</t>
         </is>
       </c>
     </row>
@@ -4566,19 +4633,19 @@
         <v>-0.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE23" t="n">
         <v>19</v>
       </c>
       <c r="AF23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG23" t="n">
         <v>19</v>
       </c>
       <c r="AH23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI23" t="n">
         <v>21</v>
@@ -4620,7 +4687,7 @@
         <v>19</v>
       </c>
       <c r="AV23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW23" t="n">
         <v>12</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-18-2007-08</t>
+          <t>2007-12-18</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>5</v>
       </c>
       <c r="AD24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE24" t="n">
         <v>2</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-18-2007-08</t>
+          <t>2007-12-18</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-1.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
@@ -4990,7 +5057,7 @@
         <v>28</v>
       </c>
       <c r="AX25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY25" t="n">
         <v>3</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-18-2007-08</t>
+          <t>2007-12-18</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F26" t="n">
         <v>14</v>
       </c>
       <c r="G26" t="n">
-        <v>0.417</v>
+        <v>0.391</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
@@ -5058,73 +5125,73 @@
         <v>0.451</v>
       </c>
       <c r="L26" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="M26" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="N26" t="n">
-        <v>0.362</v>
+        <v>0.347</v>
       </c>
       <c r="O26" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="P26" t="n">
         <v>28.1</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.796</v>
+        <v>0.794</v>
       </c>
       <c r="R26" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="S26" t="n">
-        <v>29.1</v>
+        <v>29.3</v>
       </c>
       <c r="T26" t="n">
-        <v>39.2</v>
+        <v>39.5</v>
       </c>
       <c r="U26" t="n">
-        <v>17.6</v>
+        <v>17.3</v>
       </c>
       <c r="V26" t="n">
         <v>16.2</v>
       </c>
       <c r="W26" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="X26" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Y26" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="Z26" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="AB26" t="n">
-        <v>98.7</v>
+        <v>98.3</v>
       </c>
       <c r="AC26" t="n">
-        <v>-3</v>
+        <v>-3.3</v>
       </c>
       <c r="AD26" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AE26" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF26" t="n">
         <v>19</v>
       </c>
-      <c r="AF26" t="n">
-        <v>18</v>
-      </c>
       <c r="AG26" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AH26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI26" t="n">
         <v>23</v>
@@ -5136,19 +5203,19 @@
         <v>15</v>
       </c>
       <c r="AL26" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AM26" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AN26" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AO26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ26" t="n">
         <v>3</v>
@@ -5157,7 +5224,7 @@
         <v>22</v>
       </c>
       <c r="AS26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT26" t="n">
         <v>29</v>
@@ -5175,13 +5242,13 @@
         <v>29</v>
       </c>
       <c r="AY26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ26" t="n">
         <v>23</v>
       </c>
       <c r="BA26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB26" t="n">
         <v>14</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-18-2007-08</t>
+          <t>2007-12-18</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>7</v>
       </c>
       <c r="AD27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE27" t="n">
         <v>2</v>
@@ -5333,7 +5400,7 @@
         <v>26</v>
       </c>
       <c r="AQ27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR27" t="n">
         <v>26</v>
@@ -5345,7 +5412,7 @@
         <v>25</v>
       </c>
       <c r="AU27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV27" t="n">
         <v>4</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-18-2007-08</t>
+          <t>2007-12-18</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>-7.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE28" t="n">
         <v>26</v>
@@ -5488,13 +5555,13 @@
         <v>29</v>
       </c>
       <c r="AH28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI28" t="n">
         <v>11</v>
       </c>
       <c r="AJ28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK28" t="n">
         <v>26</v>
@@ -5515,7 +5582,7 @@
         <v>18</v>
       </c>
       <c r="AQ28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR28" t="n">
         <v>16</v>
@@ -5539,7 +5606,7 @@
         <v>9</v>
       </c>
       <c r="AY28" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ28" t="n">
         <v>22</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-18-2007-08</t>
+          <t>2007-12-18</t>
         </is>
       </c>
     </row>
@@ -5580,46 +5647,46 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F29" t="n">
         <v>11</v>
       </c>
       <c r="G29" t="n">
-        <v>0.577</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H29" t="n">
         <v>48.2</v>
       </c>
       <c r="I29" t="n">
-        <v>36.8</v>
+        <v>37.1</v>
       </c>
       <c r="J29" t="n">
-        <v>82.3</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>0.447</v>
+        <v>0.45</v>
       </c>
       <c r="L29" t="n">
-        <v>7.9</v>
+        <v>8.1</v>
       </c>
       <c r="M29" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="N29" t="n">
-        <v>0.426</v>
+        <v>0.433</v>
       </c>
       <c r="O29" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="P29" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.824</v>
       </c>
       <c r="R29" t="n">
         <v>10.4</v>
@@ -5631,46 +5698,46 @@
         <v>41.4</v>
       </c>
       <c r="U29" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="V29" t="n">
-        <v>12.3</v>
+        <v>12.6</v>
       </c>
       <c r="W29" t="n">
         <v>6.6</v>
       </c>
       <c r="X29" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z29" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA29" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="AB29" t="n">
-        <v>97.3</v>
+        <v>98</v>
       </c>
       <c r="AC29" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF29" t="n">
         <v>11</v>
       </c>
       <c r="AG29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI29" t="n">
         <v>12</v>
@@ -5679,13 +5746,13 @@
         <v>10</v>
       </c>
       <c r="AK29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN29" t="n">
         <v>1</v>
@@ -5709,10 +5776,10 @@
         <v>21</v>
       </c>
       <c r="AU29" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AV29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW29" t="n">
         <v>22</v>
@@ -5721,13 +5788,13 @@
         <v>25</v>
       </c>
       <c r="AY29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ29" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA29" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BB29" t="n">
         <v>16</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-18-2007-08</t>
+          <t>2007-12-18</t>
         </is>
       </c>
     </row>
@@ -5843,7 +5910,7 @@
         <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AF30" t="n">
         <v>13</v>
@@ -5894,7 +5961,7 @@
         <v>2</v>
       </c>
       <c r="AV30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW30" t="n">
         <v>2</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-18-2007-08</t>
+          <t>2007-12-18</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>2.3</v>
       </c>
       <c r="AD31" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE31" t="n">
         <v>13</v>
@@ -6031,7 +6098,7 @@
         <v>8</v>
       </c>
       <c r="AG31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH31" t="n">
         <v>5</v>
@@ -6070,7 +6137,7 @@
         <v>12</v>
       </c>
       <c r="AT31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU31" t="n">
         <v>22</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-18-2007-08</t>
+          <t>2007-12-18</t>
         </is>
       </c>
     </row>
